--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Keywords" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:Q7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>TCID</t>
   </si>
@@ -29,9 +30,6 @@
     <t>Runmode</t>
   </si>
   <si>
-    <t>Uploadpic</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -65,34 +63,70 @@
     <t>ExpectedResult</t>
   </si>
   <si>
+    <t>shekhar_20_nice@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>pwd_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>facebookLogin</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com</t>
+  </si>
+  <si>
+    <t>shikha.hello</t>
+  </si>
+  <si>
+    <t>loginBtn_xpath</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>C:\\HybridFramework\\HybridFramework\\Files\\FileUpload.exe</t>
+  </si>
+  <si>
+    <t>fileUpload</t>
+  </si>
+  <si>
+    <t>photo_vid_xpath</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>shekhar_20_nice@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>PicPath</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>email_id</t>
-  </si>
-  <si>
-    <t>pwd_id</t>
-  </si>
-  <si>
-    <t>loginBtn_id</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>UploadFile</t>
+  </si>
+  <si>
+    <t>Browse_xpath</t>
+  </si>
+  <si>
+    <t>https://imgur.com/upload</t>
   </si>
 </sst>
 </file>
@@ -150,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,18 +207,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,10 +533,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -500,15 +554,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -521,92 +575,160 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,50 +748,131 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -515,7 +514,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -92,9 +92,6 @@
     <t>https://www.facebook.com</t>
   </si>
   <si>
-    <t>shikha.hello</t>
-  </si>
-  <si>
     <t>loginBtn_xpath</t>
   </si>
   <si>
@@ -126,6 +123,36 @@
   </si>
   <si>
     <t>https://imgur.com/upload</t>
+  </si>
+  <si>
+    <t>AppScanSite</t>
+  </si>
+  <si>
+    <t>jsmith</t>
+  </si>
+  <si>
+    <t>demo1234</t>
+  </si>
+  <si>
+    <t>http://demo.testfire.net/</t>
+  </si>
+  <si>
+    <t>SignIn_xpath</t>
+  </si>
+  <si>
+    <t>username_id</t>
+  </si>
+  <si>
+    <t>password_id</t>
+  </si>
+  <si>
+    <t>Login_name</t>
+  </si>
+  <si>
+    <t>View_Account_Sum_xpath</t>
+  </si>
+  <si>
+    <t>View_Recent_Transaction_xpath</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +209,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -206,30 +245,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,14 +564,22 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -553,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -672,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -681,53 +718,185 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,10 +905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -780,19 +949,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -800,30 +966,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
+      <c r="A6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,7 +1006,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
@@ -854,13 +1017,52 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>26</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -870,8 +1072,9 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="E4" r:id="rId4"/>
     <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="2820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="2055"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -542,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +581,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/HybridFramework/Files/Facebook.xlsx
+++ b/HybridFramework/Files/Facebook.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -565,7 +564,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +580,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +593,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
